--- a/webScrapping/espn_scrapper/IPL/Kolkata Knight Riders/Kamlesh Nagarkoti.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Kolkata Knight Riders/Kamlesh Nagarkoti.xlsx
@@ -439,28 +439,28 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Oct 26 2020</v>
+        <v xml:space="preserve"> Oct 7 2020</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C2" t="str">
-        <v>Kings XI won by 8 wickets (with 7 balls remaining)</v>
+        <v>KKR won by 10 runs</v>
       </c>
       <c r="D2" t="str">
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="E2" t="str">
-        <v>Kings XI Punjab</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="F2" t="str">
         <v>Kamlesh Nagarkoti</v>
       </c>
       <c r="G2" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="str">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I2" t="str">
         <v>0</v>
@@ -469,33 +469,33 @@
         <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>46.15</v>
+        <v>0.00</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 7 2020</v>
+        <v xml:space="preserve"> Oct 26 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C3" t="str">
-        <v>KKR won by 10 runs</v>
+        <v>Kings XI won by 8 wickets (with 7 balls remaining)</v>
       </c>
       <c r="D3" t="str">
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="E3" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Kings XI Punjab</v>
       </c>
       <c r="F3" t="str">
         <v>Kamlesh Nagarkoti</v>
       </c>
       <c r="G3" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H3" t="str">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I3" t="str">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="str">
-        <v>0.00</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="4">
